--- a/6Burndown Chart.xlsx
+++ b/6Burndown Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Barros\Desktop\shelbyfc-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\submi\Desktop\shelbyfc-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3825AE-241D-40C8-B891-30FEF0B019B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A3FB47-7E97-4CC6-AB99-9274E537BD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -41,10 +39,19 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{46492D0A-442E-41B7-A784-2450BE28300B}">
       <text>
-        <t>[Comentário por tópicos]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentário por tópicos]
 A sua versão do Excel permite-lhe ler este comentário por tópicos. No entanto, as edições feitas ao comentário serão removidas se o ficheiro for aberto numa versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     https://www.youtube.com/watch?v=J17dOgmjS2c</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -52,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Backlog ID</t>
   </si>
@@ -157,6 +164,15 @@
   </si>
   <si>
     <t>Dia 16</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Doc. proc. criativo e just. do material promo. suplementar</t>
+  </si>
+  <si>
+    <t>Mapa de navegação do Website da instituição e desc.</t>
   </si>
 </sst>
 </file>
@@ -167,7 +183,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-816]d/mmm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +213,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +255,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -548,7 +577,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +641,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -705,28 +740,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -851,49 +886,49 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.5333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.0666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.1333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.7333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.2666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.8666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.93333333333333357</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.46666666666666679</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -961,7 +996,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1446598176"/>
@@ -1020,7 +1055,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1446597760"/>
@@ -1062,7 +1097,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1099,7 +1134,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1984,23 +2019,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:20" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>19</v>
       </c>
@@ -2022,8 +2057,8 @@
       <c r="R2" s="17"/>
       <c r="S2" s="18"/>
     </row>
-    <row r="3" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:23" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:20" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
@@ -2082,7 +2117,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" s="24"/>
       <c r="C5" s="26"/>
       <c r="D5" s="8" t="s">
@@ -2137,7 +2172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>50</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>51</v>
       </c>
@@ -2187,22 +2222,32 @@
       <c r="S7" s="2"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15">
+        <v>7</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2211,9 +2256,8 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="3"/>
-      <c r="W8" s="27"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>53</v>
       </c>
@@ -2238,7 +2282,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>54</v>
       </c>
@@ -2263,7 +2307,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>55</v>
       </c>
@@ -2288,14 +2332,16 @@
       <c r="S11" s="2"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>8</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2307,13 +2353,19 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2">
+        <v>2</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>57</v>
       </c>
@@ -2338,7 +2390,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>58</v>
       </c>
@@ -2363,7 +2415,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>59</v>
       </c>
@@ -2388,32 +2440,44 @@
       <c r="S15" s="2"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="15">
+        <v>4</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="3"/>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>61</v>
       </c>
@@ -2438,148 +2502,219 @@
       <c r="S17" s="2"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="21" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+    </row>
+    <row r="21" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="10">
         <f>SUM(D6:D11)</f>
+        <v>7</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" ref="E22:S22" si="0">D22-SUM(E6:E11)</f>
+        <v>7</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="10">
-        <f>D22-SUM(E6:E11)</f>
+      <c r="M22" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="10">
-        <f>E22-SUM(F6:F11)</f>
+      <c r="N22" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="10">
-        <f>F22-SUM(G6:G11)</f>
+      <c r="O22" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="10">
-        <f>G22-SUM(H6:H11)</f>
+      <c r="P22" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I22" s="10">
-        <f>H22-SUM(I6:I11)</f>
+      <c r="Q22" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="10">
-        <f>I22-SUM(J6:J11)</f>
+      <c r="R22" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="10">
-        <f>J22-SUM(K6:K11)</f>
+      <c r="S22" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="10">
-        <f>K22-SUM(L6:L11)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="10">
-        <f>L22-SUM(M6:M11)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="10">
-        <f>M22-SUM(N6:N11)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="10">
-        <f>N22-SUM(O6:O11)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <f>O22-SUM(P6:P11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="10">
-        <f>P22-SUM(Q6:Q11)</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="10">
-        <f>Q22-SUM(R6:R11)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="11">
-        <f>R22-SUM(S6:S11)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="12">
         <f>SUM(D6:D11)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E23" s="13">
         <f>$D$23-($D$23/15*1)</f>
-        <v>0</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F23" s="13">
         <f>$D$23-($D$23/15*2)</f>
-        <v>0</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="G23" s="13">
         <f>$D$23-($D$23/15*3)</f>
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="H23" s="13">
         <f>$D$23-($D$23/15*4)</f>
-        <v>0</v>
+        <v>5.1333333333333329</v>
       </c>
       <c r="I23" s="13">
         <f>$D$23-($D$23/15*5)</f>
-        <v>0</v>
+        <v>4.6666666666666661</v>
       </c>
       <c r="J23" s="13">
         <f>$D$23-($D$23/15*6)</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="K23" s="13">
         <f>$D$23-($D$23/15*7)</f>
-        <v>0</v>
+        <v>3.7333333333333334</v>
       </c>
       <c r="L23" s="13">
         <f>$D$23-($D$23/15*8)</f>
-        <v>0</v>
+        <v>3.2666666666666666</v>
       </c>
       <c r="M23" s="13">
         <f>$D$23-($D$23/15*9)</f>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="N23" s="13">
         <f>$D$23-($D$23/15*10)</f>
-        <v>0</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="O23" s="13">
         <f>$D$23-($D$23/15*11)</f>
-        <v>0</v>
+        <v>1.8666666666666663</v>
       </c>
       <c r="P23" s="13">
         <f>$D$23-($D$23/15*12)</f>
-        <v>0</v>
+        <v>1.4000000000000004</v>
       </c>
       <c r="Q23" s="13">
         <f>$D$23-($D$23/15*13)</f>
-        <v>0</v>
+        <v>0.93333333333333357</v>
       </c>
       <c r="R23" s="13">
         <f>$D$23-($D$23/15*14)</f>
-        <v>0</v>
+        <v>0.46666666666666679</v>
       </c>
       <c r="S23" s="14">
         <f>$D$23-($D$23/15*15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:S2"/>

--- a/6Burndown Chart.xlsx
+++ b/6Burndown Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\submi\Desktop\shelbyfc-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\shelbyfc-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A3FB47-7E97-4CC6-AB99-9274E537BD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1CC0C6-6B16-4DAA-982A-4EFF6EFEDF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,19 +43,10 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{46492D0A-442E-41B7-A784-2450BE28300B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentário por tópicos]
+        <t>[Comentário por tópicos]
 A sua versão do Excel permite-lhe ler este comentário por tópicos. No entanto, as edições feitas ao comentário serão removidas se o ficheiro for aberto numa versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     https://www.youtube.com/watch?v=J17dOgmjS2c</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -544,6 +539,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,13 +578,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,52 +735,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -886,49 +881,49 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5333333333333332</c:v>
+                  <c:v>17.733333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0666666666666664</c:v>
+                  <c:v>16.466666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1333333333333329</c:v>
+                  <c:v>13.933333333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6666666666666661</c:v>
+                  <c:v>12.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7333333333333334</c:v>
+                  <c:v>10.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2666666666666666</c:v>
+                  <c:v>8.8666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8</c:v>
+                  <c:v>7.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.333333333333333</c:v>
+                  <c:v>6.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8666666666666663</c:v>
+                  <c:v>5.0666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4000000000000004</c:v>
+                  <c:v>3.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93333333333333357</c:v>
+                  <c:v>2.533333333333335</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46666666666666679</c:v>
+                  <c:v>1.2666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2021,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2036,33 +2031,33 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:20" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:20" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="28" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2118,8 +2113,8 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
@@ -2179,7 +2174,9 @@
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="15">
+        <v>6</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2188,8 +2185,12 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="M6" s="2">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -2289,7 +2290,9 @@
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="15">
+        <v>6</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2300,8 +2303,12 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="O10" s="2">
+        <v>3</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -2397,7 +2404,9 @@
       <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="15">
+        <v>6</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2405,7 +2414,9 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2509,7 +2520,9 @@
       <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2523,7 +2536,9 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="R18" s="2">
+        <v>2</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="3"/>
     </row>
@@ -2534,7 +2549,9 @@
       <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2548,166 +2565,168 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="R19" s="2">
+        <v>1</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
     </row>
     <row r="21" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="10">
         <f>SUM(D6:D11)</f>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" ref="E22:S22" si="0">D22-SUM(E6:E11)</f>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K22" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="12">
         <f>SUM(D6:D11)</f>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E23" s="13">
         <f>$D$23-($D$23/15*1)</f>
-        <v>6.5333333333333332</v>
+        <v>17.733333333333334</v>
       </c>
       <c r="F23" s="13">
         <f>$D$23-($D$23/15*2)</f>
-        <v>6.0666666666666664</v>
+        <v>16.466666666666669</v>
       </c>
       <c r="G23" s="13">
         <f>$D$23-($D$23/15*3)</f>
-        <v>5.6</v>
+        <v>15.2</v>
       </c>
       <c r="H23" s="13">
         <f>$D$23-($D$23/15*4)</f>
-        <v>5.1333333333333329</v>
+        <v>13.933333333333334</v>
       </c>
       <c r="I23" s="13">
         <f>$D$23-($D$23/15*5)</f>
-        <v>4.6666666666666661</v>
+        <v>12.666666666666668</v>
       </c>
       <c r="J23" s="13">
         <f>$D$23-($D$23/15*6)</f>
-        <v>4.2</v>
+        <v>11.4</v>
       </c>
       <c r="K23" s="13">
         <f>$D$23-($D$23/15*7)</f>
-        <v>3.7333333333333334</v>
+        <v>10.133333333333333</v>
       </c>
       <c r="L23" s="13">
         <f>$D$23-($D$23/15*8)</f>
-        <v>3.2666666666666666</v>
+        <v>8.8666666666666671</v>
       </c>
       <c r="M23" s="13">
         <f>$D$23-($D$23/15*9)</f>
-        <v>2.8</v>
+        <v>7.6000000000000014</v>
       </c>
       <c r="N23" s="13">
         <f>$D$23-($D$23/15*10)</f>
-        <v>2.333333333333333</v>
+        <v>6.3333333333333339</v>
       </c>
       <c r="O23" s="13">
         <f>$D$23-($D$23/15*11)</f>
-        <v>1.8666666666666663</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="P23" s="13">
         <f>$D$23-($D$23/15*12)</f>
-        <v>1.4000000000000004</v>
+        <v>3.8000000000000007</v>
       </c>
       <c r="Q23" s="13">
         <f>$D$23-($D$23/15*13)</f>
-        <v>0.93333333333333357</v>
+        <v>2.533333333333335</v>
       </c>
       <c r="R23" s="13">
         <f>$D$23-($D$23/15*14)</f>
-        <v>0.46666666666666679</v>
+        <v>1.2666666666666657</v>
       </c>
       <c r="S23" s="14">
         <f>$D$23-($D$23/15*15)</f>

--- a/6Burndown Chart.xlsx
+++ b/6Burndown Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\shelbyfc-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Barros\Desktop\shelbyfc-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1CC0C6-6B16-4DAA-982A-4EFF6EFEDF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2AA880-81A1-482A-A8A9-332ED5084702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Backlog ID</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>Dia 16</t>
-  </si>
-  <si>
-    <t>0.5</t>
   </si>
   <si>
     <t>Doc. proc. criativo e just. do material promo. suplementar</t>
@@ -539,11 +536,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,6 +574,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,13 +635,23 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.9884508833418564E-2"/>
+          <c:y val="0.10066464543726932"/>
+          <c:w val="0.95640078628356728"/>
+          <c:h val="0.78583748407227438"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -735,52 +744,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -881,49 +890,49 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>19</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.733333333333334</c:v>
+                  <c:v>27.066666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.466666666666669</c:v>
+                  <c:v>25.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.2</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.933333333333334</c:v>
+                  <c:v>21.266666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.666666666666668</c:v>
+                  <c:v>19.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.4</c:v>
+                  <c:v>17.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.133333333333333</c:v>
+                  <c:v>15.466666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8666666666666671</c:v>
+                  <c:v>13.533333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6000000000000014</c:v>
+                  <c:v>11.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3333333333333339</c:v>
+                  <c:v>9.6666666666666679</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0666666666666664</c:v>
+                  <c:v>7.7333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8000000000000007</c:v>
+                  <c:v>5.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.533333333333335</c:v>
+                  <c:v>3.8666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2666666666666657</c:v>
+                  <c:v>1.9333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -991,7 +1000,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1446598176"/>
@@ -1050,7 +1059,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1446597760"/>
@@ -1092,7 +1101,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1129,7 +1138,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2016,48 +2025,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:20" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:20" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="20"/>
     </row>
-    <row r="3" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:20" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+    <row r="3" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:20" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2112,9 +2121,9 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="29"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
@@ -2167,7 +2176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>50</v>
       </c>
@@ -2198,19 +2207,25 @@
       <c r="S6" s="2"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="15">
+        <v>4</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2223,7 +2238,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>52</v>
       </c>
@@ -2258,7 +2273,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>53</v>
       </c>
@@ -2283,7 +2298,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>54</v>
       </c>
@@ -2314,14 +2329,16 @@
       <c r="S10" s="2"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="15">
+        <v>6</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2336,10 +2353,14 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="3"/>
+      <c r="S11" s="2">
+        <v>2</v>
+      </c>
+      <c r="T11" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>56</v>
       </c>
@@ -2372,7 +2393,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>57</v>
       </c>
@@ -2397,7 +2418,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>58</v>
       </c>
@@ -2426,14 +2447,16 @@
       <c r="S14" s="2"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2444,14 +2467,16 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="2">
+        <v>0.5</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>60</v>
       </c>
@@ -2484,11 +2509,11 @@
       <c r="S16" s="2">
         <v>1</v>
       </c>
-      <c r="T16" s="3" t="s">
-        <v>35</v>
+      <c r="T16" s="29">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>61</v>
       </c>
@@ -2513,12 +2538,12 @@
       <c r="S17" s="2"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="15">
         <v>2</v>
@@ -2542,12 +2567,12 @@
       <c r="S18" s="2"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="15">
         <v>1</v>
@@ -2571,169 +2596,175 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
     </row>
-    <row r="21" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22" t="s">
+    <row r="21" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="10">
         <f>SUM(D6:D11)</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" ref="E22:S22" si="0">D22-SUM(E6:E11)</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K22" s="10">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N22" s="10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O22" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P22" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R22" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S22" s="11">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>R22-SUM(S6:S11)</f>
+        <v>10</v>
+      </c>
+      <c r="T22" s="11">
+        <f>S22-SUM(T6:T11)</f>
+        <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="24" t="s">
+    <row r="23" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="12">
         <f>SUM(D6:D11)</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E23" s="13">
         <f>$D$23-($D$23/15*1)</f>
-        <v>17.733333333333334</v>
+        <v>27.066666666666666</v>
       </c>
       <c r="F23" s="13">
         <f>$D$23-($D$23/15*2)</f>
-        <v>16.466666666666669</v>
+        <v>25.133333333333333</v>
       </c>
       <c r="G23" s="13">
         <f>$D$23-($D$23/15*3)</f>
-        <v>15.2</v>
+        <v>23.2</v>
       </c>
       <c r="H23" s="13">
         <f>$D$23-($D$23/15*4)</f>
-        <v>13.933333333333334</v>
+        <v>21.266666666666666</v>
       </c>
       <c r="I23" s="13">
         <f>$D$23-($D$23/15*5)</f>
-        <v>12.666666666666668</v>
+        <v>19.333333333333336</v>
       </c>
       <c r="J23" s="13">
         <f>$D$23-($D$23/15*6)</f>
-        <v>11.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K23" s="13">
         <f>$D$23-($D$23/15*7)</f>
-        <v>10.133333333333333</v>
+        <v>15.466666666666667</v>
       </c>
       <c r="L23" s="13">
         <f>$D$23-($D$23/15*8)</f>
-        <v>8.8666666666666671</v>
+        <v>13.533333333333333</v>
       </c>
       <c r="M23" s="13">
         <f>$D$23-($D$23/15*9)</f>
-        <v>7.6000000000000014</v>
+        <v>11.600000000000001</v>
       </c>
       <c r="N23" s="13">
         <f>$D$23-($D$23/15*10)</f>
-        <v>6.3333333333333339</v>
+        <v>9.6666666666666679</v>
       </c>
       <c r="O23" s="13">
         <f>$D$23-($D$23/15*11)</f>
-        <v>5.0666666666666664</v>
+        <v>7.7333333333333343</v>
       </c>
       <c r="P23" s="13">
         <f>$D$23-($D$23/15*12)</f>
-        <v>3.8000000000000007</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="Q23" s="13">
         <f>$D$23-($D$23/15*13)</f>
-        <v>2.533333333333335</v>
+        <v>3.8666666666666671</v>
       </c>
       <c r="R23" s="13">
         <f>$D$23-($D$23/15*14)</f>
-        <v>1.2666666666666657</v>
+        <v>1.9333333333333336</v>
       </c>
       <c r="S23" s="14">
         <f>$D$23-($D$23/15*15)</f>
         <v>0</v>
       </c>
+      <c r="T23" s="14">
+        <f>$D$23-($D$23/15*15)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:S2"/>

--- a/6Burndown Chart.xlsx
+++ b/6Burndown Chart.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Barros\Desktop\shelbyfc-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaob\Desktop\Shelby FC\shelbyfc-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2AA880-81A1-482A-A8A9-332ED5084702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E28A4D-53C3-4B45-9F67-DC3251682E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,10 +40,19 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{46492D0A-442E-41B7-A784-2450BE28300B}">
       <text>
-        <t>[Comentário por tópicos]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentário por tópicos]
 A sua versão do Excel permite-lhe ler este comentário por tópicos. No entanto, as edições feitas ao comentário serão removidas se o ficheiro for aberto numa versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     https://www.youtube.com/watch?v=J17dOgmjS2c</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -493,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -575,9 +581,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,7 +638,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -744,52 +747,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>23</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,49 +893,49 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>29</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.066666666666666</c:v>
+                  <c:v>30.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.133333333333333</c:v>
+                  <c:v>28.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.2</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.266666666666666</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.333333333333336</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.399999999999999</c:v>
+                  <c:v>19.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.466666666666667</c:v>
+                  <c:v>17.599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.533333333333333</c:v>
+                  <c:v>15.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.600000000000001</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.6666666666666679</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.7333333333333343</c:v>
+                  <c:v>8.7999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8000000000000007</c:v>
+                  <c:v>6.5999999999999979</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8666666666666671</c:v>
+                  <c:v>4.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9333333333333336</c:v>
+                  <c:v>2.1999999999999957</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1000,7 +1003,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1446598176"/>
@@ -1059,7 +1062,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1446597760"/>
@@ -1101,7 +1104,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1138,7 +1141,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2025,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,12 +2283,18 @@
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="15">
+        <v>4</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2400,7 +2409,9 @@
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15">
+        <v>7</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2411,9 +2422,15 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="O13" s="2">
+        <v>2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="3"/>
@@ -2509,7 +2526,7 @@
       <c r="S16" s="2">
         <v>1</v>
       </c>
-      <c r="T16" s="29">
+      <c r="T16" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -2520,7 +2537,9 @@
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2534,7 +2553,9 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="R17" s="2">
+        <v>1</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="3"/>
     </row>
@@ -2623,71 +2644,71 @@
       <c r="C22" s="22"/>
       <c r="D22" s="10">
         <f>SUM(D6:D11)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E22" s="10">
-        <f t="shared" ref="E22:S22" si="0">D22-SUM(E6:E11)</f>
-        <v>29</v>
+        <f t="shared" ref="E22:R22" si="0">D22-SUM(E6:E11)</f>
+        <v>33</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K22" s="10">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M22" s="10">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N22" s="10">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O22" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P22" s="10">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q22" s="10">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R22" s="10">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S22" s="11">
         <f>R22-SUM(S6:S11)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T22" s="11">
         <f>S22-SUM(T6:T11)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2697,63 +2718,63 @@
       <c r="C23" s="24"/>
       <c r="D23" s="12">
         <f>SUM(D6:D11)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E23" s="13">
         <f>$D$23-($D$23/15*1)</f>
-        <v>27.066666666666666</v>
+        <v>30.8</v>
       </c>
       <c r="F23" s="13">
         <f>$D$23-($D$23/15*2)</f>
-        <v>25.133333333333333</v>
+        <v>28.6</v>
       </c>
       <c r="G23" s="13">
         <f>$D$23-($D$23/15*3)</f>
-        <v>23.2</v>
+        <v>26.4</v>
       </c>
       <c r="H23" s="13">
         <f>$D$23-($D$23/15*4)</f>
-        <v>21.266666666666666</v>
+        <v>24.2</v>
       </c>
       <c r="I23" s="13">
         <f>$D$23-($D$23/15*5)</f>
-        <v>19.333333333333336</v>
+        <v>22</v>
       </c>
       <c r="J23" s="13">
         <f>$D$23-($D$23/15*6)</f>
-        <v>17.399999999999999</v>
+        <v>19.799999999999997</v>
       </c>
       <c r="K23" s="13">
         <f>$D$23-($D$23/15*7)</f>
-        <v>15.466666666666667</v>
+        <v>17.599999999999998</v>
       </c>
       <c r="L23" s="13">
         <f>$D$23-($D$23/15*8)</f>
-        <v>13.533333333333333</v>
+        <v>15.399999999999999</v>
       </c>
       <c r="M23" s="13">
         <f>$D$23-($D$23/15*9)</f>
-        <v>11.600000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="N23" s="13">
         <f>$D$23-($D$23/15*10)</f>
-        <v>9.6666666666666679</v>
+        <v>11</v>
       </c>
       <c r="O23" s="13">
         <f>$D$23-($D$23/15*11)</f>
-        <v>7.7333333333333343</v>
+        <v>8.7999999999999972</v>
       </c>
       <c r="P23" s="13">
         <f>$D$23-($D$23/15*12)</f>
-        <v>5.8000000000000007</v>
+        <v>6.5999999999999979</v>
       </c>
       <c r="Q23" s="13">
         <f>$D$23-($D$23/15*13)</f>
-        <v>3.8666666666666671</v>
+        <v>4.3999999999999986</v>
       </c>
       <c r="R23" s="13">
         <f>$D$23-($D$23/15*14)</f>
-        <v>1.9333333333333336</v>
+        <v>2.1999999999999957</v>
       </c>
       <c r="S23" s="14">
         <f>$D$23-($D$23/15*15)</f>
